--- a/KBS/data/Authorization.xlsx
+++ b/KBS/data/Authorization.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/KBS/data/Authorization.xlsx
+++ b/KBS/data/Authorization.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15480" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -493,28 +491,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/KBS/data/Authorization.xlsx
+++ b/KBS/data/Authorization.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="15480" windowHeight="7935"/>
@@ -55,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +209,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,21 +420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
